--- a/GA/dem.xlsx
+++ b/GA/dem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81102F41-AFB5-DA48-AEA7-1BE08971ECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C4780-B750-7B4C-82AF-01F279F95032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72800" yWindow="8100" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B14F0146-1A75-8946-9252-B1C5A13E25EF}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="C3">
-        <v>550</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="C4">
-        <v>530</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/GA/dem.xlsx
+++ b/GA/dem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81102F41-AFB5-DA48-AEA7-1BE08971ECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5B34F-82BB-0249-903C-76F7E9AD42BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72800" yWindow="8100" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B14F0146-1A75-8946-9252-B1C5A13E25EF}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="C3">
-        <v>550</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>520</v>
+        <v>624</v>
       </c>
       <c r="C4">
-        <v>530</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/GA/dem.xlsx
+++ b/GA/dem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81102F41-AFB5-DA48-AEA7-1BE08971ECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2E663-0307-824B-A180-AD2CC4994B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72800" yWindow="8100" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B14F0146-1A75-8946-9252-B1C5A13E25EF}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>825</v>
       </c>
       <c r="C3">
-        <v>550</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>520</v>
+        <v>780</v>
       </c>
       <c r="C4">
-        <v>530</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
